--- a/Surat Jalan/AIR/Surat Jalan W99-WJY-AIR 7 Koli (1).xlsx
+++ b/Surat Jalan/AIR/Surat Jalan W99-WJY-AIR 7 Koli (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\AIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433EC0E-32B5-41B7-837A-1B80977F37E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA88AC-56F9-4CDC-A889-1B9D4F257BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>SURAT JALAN</t>
   </si>
@@ -104,13 +104,22 @@
     <t>Koli</t>
   </si>
   <si>
-    <t>250220W99-WJY</t>
-  </si>
-  <si>
     <t>TR-279-W99-WJY-AIR</t>
   </si>
   <si>
     <t>A0034808  Artificial joint</t>
+  </si>
+  <si>
+    <t>250308W99-WJY</t>
+  </si>
+  <si>
+    <t>Sabtu, 08/03/25</t>
+  </si>
+  <si>
+    <t>WJY - Wijaya</t>
+  </si>
+  <si>
+    <t>Bekasi</t>
   </si>
 </sst>
 </file>
@@ -833,32 +842,32 @@
   <dimension ref="B1:P54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="1.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" customWidth="1"/>
-    <col min="17" max="17" width="1.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="1.88671875" customWidth="1"/>
+    <col min="16" max="16" width="2.44140625" customWidth="1"/>
+    <col min="17" max="17" width="1.109375" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="23.25">
+    <row r="1" spans="2:16" ht="23.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +877,9 @@
       <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="50"/>
+      <c r="M1" s="50" t="s">
+        <v>27</v>
+      </c>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
       <c r="P1" s="50"/>
@@ -878,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -898,7 +909,9 @@
         <v>7</v>
       </c>
       <c r="C3" s="60"/>
-      <c r="D3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="K3" t="s">
         <v>14</v>
@@ -906,7 +919,9 @@
       <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="58"/>
+      <c r="M3" s="58" t="s">
+        <v>28</v>
+      </c>
       <c r="N3" s="59"/>
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
@@ -945,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1003,8 +1018,10 @@
       <c r="N10" s="8"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75">
-      <c r="B11" s="10"/>
+    <row r="11" spans="2:16" ht="15.6">
+      <c r="B11" s="10">
+        <v>1160</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="29">
         <v>7</v>
@@ -1014,19 +1031,17 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="M11" s="10">
-        <v>95.4</v>
-      </c>
-      <c r="N11" s="56">
-        <v>0.56000000000000005</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="N11" s="56"/>
       <c r="O11" s="57"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75">
+    <row r="12" spans="2:16" ht="15.6">
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
       <c r="D12" s="29"/>
@@ -1039,7 +1054,7 @@
       <c r="N12" s="56"/>
       <c r="O12" s="57"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75">
+    <row r="13" spans="2:16" ht="15.6">
       <c r="B13" s="10"/>
       <c r="C13" s="13"/>
       <c r="D13" s="29"/>
@@ -1114,7 +1129,7 @@
       <c r="M17" s="27"/>
       <c r="N17" s="37">
         <f>SUM(N11:O14)</f>
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="O17" s="4"/>
     </row>
@@ -1183,7 +1198,7 @@
       <c r="F26" s="51"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="2:16" ht="36.75" customHeight="1">
+    <row r="27" spans="2:16" ht="13.8" customHeight="1">
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -1198,7 +1213,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="2:16" ht="23.25">
+    <row r="29" spans="2:16" ht="23.4">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1225,7 @@
       </c>
       <c r="M29" s="50" t="str">
         <f t="shared" ref="M29:M35" si="0">IF(ISBLANK(M1),"",M1)</f>
-        <v/>
+        <v>WJY - Wijaya</v>
       </c>
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
@@ -1222,7 +1237,7 @@
       </c>
       <c r="C30" s="15" t="str">
         <f>IF(ISBLANK(C2),"",C2)</f>
-        <v>250220W99-WJY</v>
+        <v>250308W99-WJY</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -1247,7 +1262,7 @@
       <c r="C31" s="60"/>
       <c r="D31" s="49" t="str">
         <f>IF(ISBLANK(D3),"",D3)</f>
-        <v/>
+        <v>Sabtu, 08/03/25</v>
       </c>
       <c r="E31" s="19"/>
       <c r="K31" t="s">
@@ -1258,7 +1273,7 @@
       </c>
       <c r="M31" s="50" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Bekasi</v>
       </c>
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
@@ -1375,10 +1390,10 @@
       <c r="N38" s="8"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="2:16" ht="15.75">
-      <c r="B39" s="10" t="str">
+    <row r="39" spans="2:16" ht="15.6">
+      <c r="B39" s="10">
         <f>IF(ISBLANK(B11),"",B11)</f>
-        <v/>
+        <v>1160</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="29">
@@ -1397,15 +1412,15 @@
       <c r="I39" s="29"/>
       <c r="M39" s="10">
         <f>IF(ISBLANK(M11),"",M11)</f>
-        <v>95.4</v>
-      </c>
-      <c r="N39" s="56">
+        <v>96</v>
+      </c>
+      <c r="N39" s="56" t="str">
         <f>IF(ISBLANK(N11),"",N11)</f>
-        <v>0.56000000000000005</v>
+        <v/>
       </c>
       <c r="O39" s="57"/>
     </row>
-    <row r="40" spans="2:16" ht="15.75">
+    <row r="40" spans="2:16" ht="15.6">
       <c r="B40" s="10" t="str">
         <f>IF(ISBLANK(B12),"",B12)</f>
         <v/>
@@ -1415,7 +1430,10 @@
         <f>IF(ISBLANK(D12),"",D12)</f>
         <v/>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="29" t="str">
+        <f>IF(ISBLANK(E12),"",E12)</f>
+        <v/>
+      </c>
       <c r="F40" s="13"/>
       <c r="G40" s="29" t="str">
         <f t="shared" ref="G40:G43" si="1">IF(ISBLANK(G12),"",G12)</f>
@@ -1433,17 +1451,20 @@
       </c>
       <c r="O40" s="57"/>
     </row>
-    <row r="41" spans="2:16" ht="15.75">
+    <row r="41" spans="2:16" ht="15.6">
       <c r="B41" s="10" t="str">
         <f t="shared" ref="B41:B43" si="2">IF(ISBLANK(B13),"",B13)</f>
         <v/>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="29" t="str">
-        <f t="shared" ref="D41:D43" si="3">IF(ISBLANK(D13),"",D13)</f>
-        <v/>
-      </c>
-      <c r="E41" s="14"/>
+        <f t="shared" ref="D41:E43" si="3">IF(ISBLANK(D13),"",D13)</f>
+        <v/>
+      </c>
+      <c r="E41" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F41" s="13"/>
       <c r="G41" s="29" t="str">
         <f t="shared" si="1"/>
@@ -1471,7 +1492,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="3"/>
       <c r="G42" s="29" t="str">
         <f t="shared" si="1"/>
@@ -1554,7 +1575,7 @@
       <c r="M45" s="27"/>
       <c r="N45" s="37">
         <f>IF(ISBLANK(N17),"",N17)</f>
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="O45" s="4"/>
     </row>
@@ -1659,6 +1680,6 @@
     <mergeCell ref="N41:O41"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>